--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/imports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F957F5-2BA0-B14F-A973-B8AE86A68AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E403C6D1-1714-CF42-9D58-415802C5FD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1200" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imports" sheetId="1" r:id="rId1"/>
@@ -264,9 +264,6 @@
     <t>ERO</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ero.owl</t>
-  </si>
-  <si>
     <t>intubation [ERO:0001108]</t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>anatomical system [UBERON:0000467]; organ [UBERON:0000062];digestive system [UBERON:0001007];caudate nucleus [UBERON:0001873];cardiovascular system [UBERON:0004535];bodily fluid [UBERON:0006314];respiratory system [UBERON:0001004]</t>
+  </si>
+  <si>
+    <t>https://data.bioontology.org/ontologies/ERO/submissions/14/download?apikey=8b5b7825-538d-40e0-9e9e-5ab9274a9aeb</t>
   </si>
 </sst>
 </file>
@@ -368,20 +368,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -443,7 +436,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -549,7 +542,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -691,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,30 +704,29 @@
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -747,32 +739,32 @@
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -783,14 +775,14 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -803,63 +795,63 @@
       <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="388" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -874,7 +866,7 @@
       <c r="D9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -889,9 +881,9 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -906,9 +898,9 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -917,15 +909,15 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -940,9 +932,9 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -959,7 +951,7 @@
       <c r="D14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -976,44 +968,44 @@
       <c r="D15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="3"/>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1025,10 +1017,10 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1043,9 +1035,9 @@
         <v>57</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1062,7 +1054,7 @@
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1077,9 +1069,9 @@
         <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1096,7 +1088,7 @@
       <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1113,7 +1105,7 @@
       <c r="D23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1128,9 +1120,9 @@
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1145,9 +1137,9 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1162,9 +1154,9 @@
         <v>50</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1181,12 +1173,12 @@
       <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F27">
     <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC05F50-0F86-644D-8C81-577CD6FBD98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF5E8BD-6073-AC4C-B495-FCD0DC0DDC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1200" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF5E8BD-6073-AC4C-B495-FCD0DC0DDC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B523E72C-BA9D-D644-BF75-6EB9F56AC361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1200" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -681,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,9 +1163,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; intervention [BCIO:037000]</t>
+          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -1202,6 +1202,28 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AFP</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>measurement [AFP:0000225]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
+          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>planned process [OBI:0000011]; organisation [OBI:0000245]; dose [OBI:0000984];﻿extract [OBI:0000423]</t>
+          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -1224,6 +1224,28 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CHEBI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>acetylcysteine [CHEBI:22198]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>acetylcysteine [CHEBI:22198]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; aripiprazole [CHEBI:31236]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>acetylcysteine [CHEBI:22198]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; aripiprazole [CHEBI:31236]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
+          <t>acetylcysteine [CHEBI:22198]; carbon-monoxide [CHEBI:17245]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; aripiprazole [CHEBI:31236]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2439A55D-568A-1A49-8759-DFF1269A71FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F052B7A-1CFC-D749-B023-339260CAA53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1200" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Ontology ID</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>Life cycle temporal boundary [UBERON:0035943]; Death [UBERON:035944]; death stage [UBERON:0000071]</t>
-  </si>
-  <si>
-    <t>CHEBI</t>
-  </si>
-  <si>
-    <t>acetylcysteine [CHEBI:22198]; carbon-monoxide [CHEBI:17245]; alcohol dehydrogenase 1B [CHEBI:50269]; antipsychotic drug [CHEBI:35476]; aripiprazole [CHEBI:31236]; CB2 receptor agonist [CHEBI:73417]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; 3,4-Methylenedioxymethamphetamine [CHEBI:1391]</t>
   </si>
 </sst>
 </file>
@@ -687,7 +681,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1169,20 +1163,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
+          <t>emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; healthcare facility [OMRSE:00000102]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1201,34 +1201,6 @@
           <t>all</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SIO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/sio.owl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]; geopolitical region [SIO:000415]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
+          <t>human population [BCIO:041000]; population behaviour [BCIO:034000]; ﻿personal role [BCIO:006081]; intervention [BCIO:037000]; individual human activity [BCIO:040000]; outpatient role [BCIO:015425]; highest level of formal educational qualification achieved [BCIO:015240]; human age [BCIO:015015]; person experiencing homelessness [BCIO:015205]; personal attribute [BCIO:050300]; individual human behaviour [BCIO:036000]; process attribute [BCIO:043000]; bisexual [BCIO:015050]; consumption behaviour [BCIO:036061]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; inpatient role [BCIO:015420]; personal disposition [BCIO:050301]; human behaviour [BCIO:042000]; personal life attribute [BCIO:050302]; prescribing behaviour [BCIO:050354]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>emergency department facility [OMRSE:00000114]; hospital facility [OMRSE:00000063]; healthcare facility [OMRSE:00000102]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]</t>
+          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>human population [BCIO:041000]; population behaviour [BCIO:034000]; ﻿personal role [BCIO:006081]; intervention [BCIO:037000]; individual human activity [BCIO:040000]; outpatient role [BCIO:015425]; highest level of formal educational qualification achieved [BCIO:015240]; human age [BCIO:015015]; person experiencing homelessness [BCIO:015205]; personal attribute [BCIO:050300]; individual human behaviour [BCIO:036000]; process attribute [BCIO:043000]; bisexual [BCIO:015050]; consumption behaviour [BCIO:036061]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; inpatient role [BCIO:015420]; personal disposition [BCIO:050301]; human behaviour [BCIO:042000]; personal life attribute [BCIO:050302]; prescribing behaviour [BCIO:050354]</t>
+          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
+          <t>fire [ENVO:01000786]; ﻿human construction [ENVO:00000070]; building [ENVO:00000073]; environmental disposition [ENVO:01000452]; aerosol [ENVO:00010505]; construction [ENVO:01001813]; smoke [ENVO:01000838]; environmental system [ENVO:01000254]; laboratory facility [ENVO:01001406]; shop [ENVO:00002221]; environmental material [ENVO:00010483]; commercial building [ENVO:01001222]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>fire [ENVO:01000786]; ﻿human construction [ENVO:00000070]; building [ENVO:00000073]; environmental disposition [ENVO:01000452]; aerosol [ENVO:00010505]; construction [ENVO:01001813]; smoke [ENVO:01000838]; environmental system [ENVO:01000254]; laboratory facility [ENVO:01001406]; shop [ENVO:00002221]; environmental material [ENVO:00010483]; commercial building [ENVO:01001222]</t>
+          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+          <t>adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,6 +1201,34 @@
           <t>all</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NCIT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>agitation [NCIT:C79530]; thalamus [NCIT:C12459]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1205,12 +1205,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NCIT</t>
+          <t>HP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+          <t>http://purl.obolibrary.org/obo/hp.owl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>agitation [NCIT:C79530]; thalamus [NCIT:C12459]</t>
+          <t>aortic stiffness [HP:0030965]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1205,12 +1205,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>CHEBI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/hp.owl</t>
+          <t>http://purl.obolibrary.org/obo/chebi.owl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>aortic stiffness [HP:0030965]</t>
+          <t>cotinine [CHEBI:68641]; acetaldehyde [CHEBI:15343]; acrolein [CHEBI:15368]; acrylonitrile [CHEBI:28217]; metabolite [CHEBI:25212]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; methanol [CHEBI:17790]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1205,12 +1205,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEBI</t>
+          <t>UBERON</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/chebi.owl</t>
+          <t>http://purl.obolibrary.org/obo/uberon.owl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>cotinine [CHEBI:68641]; acetaldehyde [CHEBI:15343]; acrolein [CHEBI:15368]; acrylonitrile [CHEBI:28217]; metabolite [CHEBI:25212]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; methanol [CHEBI:17790]</t>
+          <t>death [UBERON:0035944]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
+          <t>planned process [OBI:0000011]; patient role [OBI:0000093]; dose [OBI:0000984]; organisation [OBI:0000245]; protocol [OBI:0000272]; ﻿extract [OBI:0000423]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1201,34 +1201,6 @@
           <t>all</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UBERON</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/uberon.owl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>death [UBERON:0035944]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>planned process [OBI:0000011]; patient role [OBI:0000093]; dose [OBI:0000984]; organisation [OBI:0000245]; protocol [OBI:0000272]; ﻿extract [OBI:0000423]</t>
+          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1201,6 +1201,34 @@
           <t>all</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ADDICTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/addicto.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>substance-induced anxiety disorder [ADDICTO:0001039]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1205,12 +1205,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ADDICTO</t>
+          <t>SDGIO</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/addicto.owl</t>
+          <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>substance-induced anxiety disorder [ADDICTO:0001039]</t>
+          <t>unemployed status [SDGIO:00010026]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>injury [OGMS:0000102];﻿disease [OGMS:0000031]</t>
+          <t>injury [OGMS:0000102]; treatment satisfaction [OGMS:0000090]; ﻿disease [OGMS:0000031]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1201,34 +1201,6 @@
           <t>all</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SDGIO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>unemployed status [SDGIO:00010026]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>injury [OGMS:0000102]; treatment satisfaction [OGMS:0000090]; ﻿disease [OGMS:0000031]</t>
+          <t>injury [OGMS:0000102];﻿disease [OGMS:0000031]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1201,6 +1201,34 @@
           <t>all</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GSSO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/gsso.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>advocacy organisation [GSSO:005379]; health organisation [GSSO:007328]; human rights organisation [GSSO:003501]; non-profit organisation [GSSO:004615]; money [GSSO:010609]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -1205,12 +1205,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GSSO</t>
+          <t>AFP</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/gsso.owl</t>
+          <t>http://purl.obolibrary.org/obo/afp.owl</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>advocacy organisation [GSSO:005379]; health organisation [GSSO:007328]; human rights organisation [GSSO:003501]; non-profit organisation [GSSO:004615]; money [GSSO:010609]</t>
+          <t>measurement [AFP:0000225]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
+          <t>healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1201,34 +1201,6 @@
           <t>all</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>SIO</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/sio.owl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]; geopolitical region [SIO:000415]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
+          <t>personal quality [BCIO:050303]; process attribute [BCIO:043000]; individual human activity [BCIO:040000]; bisexual [BCIO:015050]; hospital outpatient facility [BCIO:026015]; personal disposition [BCIO:050301]; human population [BCIO:041000]; human behaviour [BCIO:042000]; consumption behaviour [BCIO:036061]; prescribing behaviour [BCIO:050354]; individual human behaviour [BCIO:036000]; person experiencing homelessness [BCIO:015205]; personal attribute [BCIO:050300]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human age [BCIO:015015]; inpatient role [BCIO:015420]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>healthcare facility [OMRSE:00000102]; hospital facility [OMRSE:00000063]; emergency department facility [OMRSE:00000114]; rehabilitation facility [OMRSE:00000106]; residential facility [OMRSE:00000191]; facility [OMRSE:00000062]</t>
+          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>personal quality [BCIO:050303]; process attribute [BCIO:043000]; individual human activity [BCIO:040000]; bisexual [BCIO:015050]; hospital outpatient facility [BCIO:026015]; personal disposition [BCIO:050301]; human population [BCIO:041000]; human behaviour [BCIO:042000]; consumption behaviour [BCIO:036061]; prescribing behaviour [BCIO:050354]; individual human behaviour [BCIO:036000]; person experiencing homelessness [BCIO:015205]; personal attribute [BCIO:050300]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human age [BCIO:015015]; inpatient role [BCIO:015420]; highest level of formal educational qualification achieved [BCIO:015240]; population behaviour [BCIO:034000]; ﻿personal role [BCIO:006081]; outpatient role [BCIO:015425]</t>
+          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
+          <t>﻿human construction [ENVO:00000070]; construction [ENVO:01001813]; environmental system [ENVO:01000254]; smoke [ENVO:01000838]; aerosol [ENVO:00010505]; commercial building [ENVO:01001222]; laboratory facility [ENVO:01001406]; environmental disposition [ENVO:01000452]; building [ENVO:00000073]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; shop [ENVO:00002221]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>﻿human construction [ENVO:00000070]; construction [ENVO:01001813]; environmental system [ENVO:01000254]; smoke [ENVO:01000838]; aerosol [ENVO:00010505]; commercial building [ENVO:01001222]; laboratory facility [ENVO:01001406]; environmental disposition [ENVO:01000452]; building [ENVO:00000073]; environmental material [ENVO:00010483]; fire [ENVO:01000786]; shop [ENVO:00002221]</t>
+          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+          <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]; physical quality [PATO:0001018]</t>
+          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,6 +1201,34 @@
           <t>all</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NCIT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>agitation [NCIT:C79530]; thalamus [NCIT:C12459]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
+          <t>﻿extract [OBI:0000423]; dose [OBI:0000984]; protocol [OBI:0000272]; patient role [OBI:0000093]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1201,34 +1201,6 @@
           <t>all</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>UBERON</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/uberon.owl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>entity [BFO:0000001]</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>death [UBERON:0035944]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>﻿extract [OBI:0000423]; dose [OBI:0000984]; protocol [OBI:0000272]; patient role [OBI:0000093]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
+          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1201,6 +1201,34 @@
           <t>all</t>
         </is>
       </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ADDICTO</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/addicto.owl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>substance-induced anxiety disorder [ADDICTO:0001039]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>﻿personal role [BCIO:006081]; individual human activity [BCIO:040000]; human behaviour [BCIO:042000]; highest level of formal educational qualification achieved [BCIO:015240]; personal quality [BCIO:050303]; bisexual [BCIO:015050]; population behaviour [BCIO:034000]; consumption behaviour [BCIO:036061]; personal attribute [BCIO:050300]; human age [BCIO:015015]; individual human behaviour [BCIO:036000]; personal life attribute [BCIO:050302]; inpatient role [BCIO:015420]; person experiencing homelessness [BCIO:015205]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; human population [BCIO:041000]; process attribute [BCIO:043000]; intervention [BCIO:037000]; prescribing behaviour [BCIO:050354]</t>
+          <t>bisexual [BCIO:015050]; population behaviour [BCIO:034000]; individual human behaviour [BCIO:036000]; consumption behaviour [BCIO:036061]; ﻿personal role [BCIO:006081]; prescribing behaviour [BCIO:050354]; human age [BCIO:015015]; human behaviour [BCIO:042000]; process attribute [BCIO:043000]; personal quality [BCIO:050303]; individual human activity [BCIO:040000]; human population [BCIO:041000]; personal attribute [BCIO:050300]; person experiencing homelessness [BCIO:015205]; highest level of formal educational qualification achieved [BCIO:015240]; inpatient role [BCIO:015420]; personal disposition [BCIO:050301]; outpatient role [BCIO:015425]; hospital outpatient facility [BCIO:026015]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>﻿human construction [ENVO:00000070];building [ENVO:00000073];shop [ENVO:00002221];environmental material [ENVO:00010483];aerosol [ENVO:00010505];environmental system [ENVO:01000254];environmental disposition [ENVO:01000452];fire [ENVO:01000786];smoke [ENVO:01000838];commercial building [ENVO:01001222];construction [ENVO:01001813]</t>
+          <t>building [ENVO:00000073]; commercial building [ENVO:01001222]; environmental system [ENVO:01000254]; fire [ENVO:01000786]; environmental disposition [ENVO:01000452]; environmental material [ENVO:00010483]; construction [ENVO:01001813]; smoke [ENVO:01000838]; laboratory facility [ENVO:01001406]; ﻿human construction [ENVO:00000070]; shop [ENVO:00002221]; aerosol [ENVO:00010505]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>protocol [OBI:0000272]; dose [OBI:0000984]; ﻿extract [OBI:0000423]; organisation [OBI:0000245]; planned process [OBI:0000011]</t>
+          <t>organisation [OBI:0000245]; ﻿extract [OBI:0000423]; dose [OBI:0000984]; protocol [OBI:0000272]; patient role [OBI:0000093]; planned process [OBI:0000011]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>injury [OGMS:0000102];﻿disease [OGMS:0000031]</t>
+          <t>treatment satisfaction [OGMS:0000090]; ﻿disease [OGMS:0000031]; injury [OGMS:0000102]</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>facility [OMRSE:00000062]; healthcare facility [OMRSE:00000102];  emergency department facility [OMRSE:00000114];  rehabilitation facility [OMRSE:00000106]</t>
+          <t>healthcare facility [OMRSE:00000102]; residential facility [OMRSE:00000191]; hospital facility [OMRSE:00000063]; facility [OMRSE:00000062]; emergency department facility [OMRSE:00000114]; rehabilitation facility [OMRSE:00000106]</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]</t>
+          <t>physical quality [PATO:0001018]; concentration [PATO:0000033]; adverse treatment outcome [PATO:0000011]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1228,7 +1228,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
@@ -1229,6 +1229,230 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SIO</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sio.owl</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>geographic region [SIO:000414]; geolegal region [SIO:000413]; geopolitical region [SIO:000415]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NCIT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/ncit.owl</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>agitation [NCIT:C79530]; thalamus [NCIT:C12459]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/hp.owl</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>aortic stiffness [HP:0030965]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CHEBI</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/chebi.owl</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>cotinine [CHEBI:68641]; acetaldehyde [CHEBI:15343]; acrolein [CHEBI:15368]; acrylonitrile [CHEBI:28217]; metabolite [CHEBI:25212]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; methanol [CHEBI:17790]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UBERON</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/uberon.owl</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>death [UBERON:0035944]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ADDICTO</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/addicto.owl</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>substance-induced anxiety disorder [ADDICTO:0001039]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SDGIO</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/sdgio.owl</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>unemployed status [SDGIO:00010026]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GSSO</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/gsso.owl</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>advocacy organisation [GSSO:005379]; health organisation [GSSO:007328]; human rights organisation [GSSO:003501]; non-profit organisation [GSSO:004615]; money [GSSO:010609]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imports/External_Imports.xlsx
+++ b/imports/External_Imports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bgehrk/development/addiction-ontology/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0386E96-4427-D94E-9F05-C0240E2B70ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83B24F7-708A-C349-B0B7-36FC25EBB6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="28180" windowHeight="14040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,10 +313,10 @@
     <t>Amphetamine [CHEBI:2679];Baclofen [CHEBI:2972];Benzodiazepine [CHEBI:22720];Buprenorphine [CHEBI:3216];Bupropion [CHEBI:3219];Caffeine [CHEBI:27732];Cannabinoid [CHEBI:67194];Chemical substance [CHEBI:59999];Cocaine [CHEBI:27958];Codeine [CHEBI:16714];Ethanol [CHEBI:16236];Fentanyl [CHEBI:119915];Formaldehyde [CHEBI:16842];Gabapentin [CHEBI:42797];Heroin [CHEBI:27808];Methadone [CHEBI:6807];Methadrone  [CHEBI:59331];Methamphetamine [CHEBI:6809];Naloxone [CHEBI:7459];Nicotine [CHEBI:18723];4-(N-nitrosomethylamino)-1-(3-pyridyl)butan-1-one [CHEBI:32692];Synthetic cannabinoid [CHEBI:67201];Delta(9)-tetrahydrocannabinol [CHEBI:66964];Varenicline [CHEBI:84500];nitrosamine [CHEBI:35803]; Atomoxetine [CHEBI:127342];naphthalene [CHEBI:16482];propanal [CHEBI:17153];carbon monoxide [CHEBI:17245]; nicotine [CHEBI:18723]; carbonyl compound [CHEBI:36586]; elemental cadmium [CHEBI:37249]; pyrene [CHEBI:39106]; cytisine [CHEBI:4055]; crotonaldehyde [CHEBI:41607]; diazepam [CHEBI:49575]; hydrocodone [CHEBI:5779]; cannabidiol [CHEBI:69478]; oxycodone [CHEBI:7852]; rimonabant [CHEBI:34967]; MDMA [CHEBI:1391]; naltrexone [CHEBI:7465];  acetylcysteine [CHEBI:22198]; aripiprazole [CHEBI:31236]; 4-(methylnitrosamino)-1-(3-pyridyl)-1-butanol [CHEBI:82569]; cotinine [CHEBI:68641]; methanol [CHEBI:17790]</t>
   </si>
   <si>
-    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; hospital outpatient facility [BCIO:026015]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]</t>
-  </si>
-  <si>
     <t>https://ftp.ebi.ac.uk/pub/databases/chebi/ontology/chebi_lite.owl</t>
+  </si>
+  <si>
+    <t>outpatient role [BCIO:015080]; intervention [BCIO:037000]; personal life attribute [BCIO:050302]; human population [BCIO:041000]; subjective want [BCIO:050317]; consumption behaviour [BCIO:036061];  human age [BCIO:015015]; individual human behaviour [BCIO:036000]; highest level of formal educational qualification achieved [BCIO:015243]; homeless person [BCIO:015036]; ﻿personal role [BCIO:006081]; inpatient role [BCIO:015079]; individual human activity [BCIO:040000]; personal disposition [BCIO:050301]; personal attribute [BCIO:050300]; pleasure associated with a behaviour [BCIO:006159]; personal quality [BCIO:050303]; prescribing behaviour [BCIO:050354]; population behaviour [BCIO:034000]; human behaviour [BCIO:042000]; bisexual [BCIO:015005]; within-country location [BCIO:026002]; e-cigarette use [BCIO:050377]; bodily process [OGMS:0000060]; object-using behaviour [BCIO:036027]</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -767,7 +767,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -784,7 +784,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -802,7 +802,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
